--- a/09-08-24 to 09-14-24 Madison Schedule.xlsx
+++ b/09-08-24 to 09-14-24 Madison Schedule.xlsx
@@ -1394,7 +1394,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="K19" t="inlineStr"/>
@@ -1487,7 +1487,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Evelin</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="K20" t="inlineStr"/>
@@ -1575,7 +1575,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Evelin</t>
         </is>
       </c>
       <c r="K21" t="inlineStr"/>
@@ -1647,7 +1647,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="K22" t="inlineStr"/>
@@ -1706,7 +1706,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="K23" t="inlineStr"/>
@@ -1764,11 +1764,7 @@
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>OVERNIGHT</t>
-        </is>
-      </c>
+      <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr">
@@ -1778,10 +1774,15 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Keilah</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr"/>
+          <t>Justin Lee</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>Driver,
+Corolla</t>
+        </is>
+      </c>
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr">
         <is>
@@ -1853,14 +1854,10 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Lorena</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>2nd Scan</t>
-        </is>
-      </c>
+          <t>Keilah</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr">
         <is>
@@ -1933,14 +1930,12 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Lorena</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Driver,
-Gray Van,
-Trainer</t>
+          <t>2nd Scan</t>
         </is>
       </c>
       <c r="L26" t="inlineStr"/>
@@ -2015,10 +2010,16 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Taylor</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr"/>
+          <t>Michael N</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>Driver,
+Gray Van,
+Trainer</t>
+        </is>
+      </c>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr"/>
@@ -2073,8 +2074,16 @@
       </c>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>14)</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Taylor</t>
+        </is>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr"/>
@@ -2122,11 +2131,7 @@
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr"/>
-      <c r="N29" t="inlineStr">
-        <is>
-          <t>OVERNIGHT</t>
-        </is>
-      </c>
+      <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr"/>
       <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr">
@@ -2166,11 +2171,7 @@
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>OVERNIGHT</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr"/>
@@ -2221,11 +2222,7 @@
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>7:30 AM START</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr"/>
@@ -2278,7 +2275,7 @@
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>7:30 AM START</t>
         </is>
       </c>
       <c r="K32" t="inlineStr"/>
@@ -2333,7 +2330,7 @@
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr">
         <is>
-          <t>GUNDERSEN RX MED PACK, LA CROSSE-KING ST</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="K33" t="inlineStr"/>
@@ -2376,7 +2373,7 @@
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr">
         <is>
-          <t>505 KING ST</t>
+          <t>GUNDERSEN RX MED PACK, LA CROSSE-KING ST</t>
         </is>
       </c>
       <c r="K34" t="inlineStr"/>
@@ -2419,7 +2416,7 @@
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/9Ux8XBD17p92</t>
+          <t>505 KING ST</t>
         </is>
       </c>
       <c r="K35" t="inlineStr"/>
@@ -2466,7 +2463,7 @@
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW   </t>
+          <t>https://goo.gl/maps/9Ux8XBD17p92</t>
         </is>
       </c>
       <c r="K36" t="inlineStr"/>
@@ -2505,7 +2502,7 @@
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t xml:space="preserve">TO FOLLOW   </t>
         </is>
       </c>
       <c r="K37" t="inlineStr"/>
@@ -2521,7 +2518,7 @@
       <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr">
         <is>
-          <t>*SALE INVENTORY</t>
+          <t>PIERCE'S EXPRESS MARKET, BARABOO (GROC + C-STORE)</t>
         </is>
       </c>
       <c r="S37" t="inlineStr"/>
@@ -2569,7 +2566,7 @@
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr">
         <is>
-          <t>GUNDERSEN RX, HOLMEN</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="K38" t="inlineStr"/>
@@ -2585,7 +2582,7 @@
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr">
         <is>
-          <t>PIERCE'S EXPRESS MARKET, BARABOO (GROC + C-STORE)</t>
+          <t>935 8TH ST</t>
         </is>
       </c>
       <c r="S38" t="inlineStr"/>
@@ -2628,7 +2625,7 @@
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr">
         <is>
-          <t>500 N HOLMEN DR</t>
+          <t>GUNDERSEN RX, HOLMEN</t>
         </is>
       </c>
       <c r="K39" t="inlineStr"/>
@@ -2644,7 +2641,7 @@
       <c r="Q39" t="inlineStr"/>
       <c r="R39" t="inlineStr">
         <is>
-          <t>935 8TH ST</t>
+          <t>https://goo.gl/maps/GhH3B9P8DGn</t>
         </is>
       </c>
       <c r="S39" t="inlineStr"/>
@@ -2687,7 +2684,7 @@
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/NNMt6crjFtCmn1oL8</t>
+          <t>500 N HOLMEN DR</t>
         </is>
       </c>
       <c r="K40" t="inlineStr"/>
@@ -2703,7 +2700,7 @@
       <c r="Q40" t="inlineStr"/>
       <c r="R40" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/GhH3B9P8DGn</t>
+          <t>*IL Meet is 4:15 am at IL Office</t>
         </is>
       </c>
       <c r="S40" t="inlineStr"/>
@@ -2742,7 +2739,7 @@
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW   </t>
+          <t>https://goo.gl/maps/NNMt6crjFtCmn1oL8</t>
         </is>
       </c>
       <c r="K41" t="inlineStr"/>
@@ -2754,7 +2751,7 @@
       <c r="Q41" t="inlineStr"/>
       <c r="R41" t="inlineStr">
         <is>
-          <t>*IL Meet is 4:15 am at IL Office</t>
+          <t>*SALE INVENTORY</t>
         </is>
       </c>
       <c r="S41" t="inlineStr"/>
@@ -2785,7 +2782,7 @@
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t xml:space="preserve">TO FOLLOW   </t>
         </is>
       </c>
       <c r="K42" t="inlineStr"/>
@@ -2828,7 +2825,7 @@
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr">
         <is>
-          <t>GUNDERSEN RX, ONALASKA-SAND LAKE RD</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="K43" t="inlineStr"/>
@@ -2887,7 +2884,7 @@
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr">
         <is>
-          <t>111 SAND LAKE RD</t>
+          <t>GUNDERSEN RX, ONALASKA-SAND LAKE RD</t>
         </is>
       </c>
       <c r="K44" t="inlineStr"/>
@@ -2951,7 +2948,7 @@
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/fjpxCvKXoUGWJLrH9</t>
+          <t>111 SAND LAKE RD</t>
         </is>
       </c>
       <c r="K45" t="inlineStr"/>
@@ -3010,7 +3007,7 @@
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr">
         <is>
-          <t>*Sarah &amp; Lori - meet at 6:00 am WI Dells Walmart</t>
+          <t>https://goo.gl/maps/fjpxCvKXoUGWJLrH9</t>
         </is>
       </c>
       <c r="K46" t="inlineStr"/>
@@ -3060,7 +3057,11 @@
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>*Sarah &amp; Lori - meet at 6:00 am WI Dells Walmart</t>
+        </is>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr"/>
@@ -3106,21 +3107,9 @@
       </c>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr"/>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>Driver 1/2, Equip</t>
-        </is>
-      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr"/>
       <c r="N48" t="inlineStr">
@@ -3172,17 +3161,17 @@
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Driver 1/2</t>
+          <t>Driver 1/2, Equip</t>
         </is>
       </c>
       <c r="L49" t="inlineStr"/>
@@ -3227,17 +3216,17 @@
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>@ Store, (Optima)</t>
+          <t>Driver 1/2</t>
         </is>
       </c>
       <c r="L50" t="inlineStr"/>
@@ -3290,17 +3279,17 @@
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store, (Optima)</t>
         </is>
       </c>
       <c r="L51" t="inlineStr"/>
@@ -3357,9 +3346,21 @@
         </is>
       </c>
       <c r="H52" t="inlineStr"/>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>Qiana</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr"/>
       <c r="N52" t="inlineStr">
@@ -3448,11 +3449,7 @@
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>6:30 AM START</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr"/>
@@ -3491,11 +3488,7 @@
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>MODAS</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr">
@@ -3557,11 +3550,7 @@
       </c>
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>KELLEY #09, BROADWAY MOBIL, ROCKFORD</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr">
@@ -3616,11 +3605,7 @@
       </c>
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>2605 BROADWAY</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr">
@@ -3663,11 +3648,7 @@
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/o8A3d3WmDrS2</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr">
@@ -3761,21 +3742,9 @@
       </c>
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr"/>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr">
         <is>
@@ -3816,16 +3785,8 @@
       </c>
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr"/>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>Emily L</t>
-        </is>
-      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr"/>
@@ -3871,16 +3832,8 @@
       </c>
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr"/>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>Laci</t>
-        </is>
-      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr"/>
@@ -3927,21 +3880,9 @@
       </c>
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr"/>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>Spencer P</t>
-        </is>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>Until 8:15</t>
-        </is>
-      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr"/>
       <c r="N63" t="inlineStr">
@@ -3990,16 +3931,8 @@
       </c>
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr"/>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>Tina E</t>
-        </is>
-      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr"/>

--- a/09-08-24 to 09-14-24 Madison Schedule.xlsx
+++ b/09-08-24 to 09-14-24 Madison Schedule.xlsx
@@ -1764,7 +1764,11 @@
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>OVERNIGHT</t>
+        </is>
+      </c>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr">
@@ -2131,7 +2135,11 @@
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr"/>
-      <c r="N29" t="inlineStr"/>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>OVERNIGHT</t>
+        </is>
+      </c>
       <c r="O29" t="inlineStr"/>
       <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr">
@@ -2222,7 +2230,11 @@
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>OVERNIGHT</t>
+        </is>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr"/>
@@ -2518,7 +2530,7 @@
       <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr">
         <is>
-          <t>PIERCE'S EXPRESS MARKET, BARABOO (GROC + C-STORE)</t>
+          <t>*SALE INVENTORY</t>
         </is>
       </c>
       <c r="S37" t="inlineStr"/>
@@ -2582,7 +2594,7 @@
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr">
         <is>
-          <t>935 8TH ST</t>
+          <t>PIERCE'S EXPRESS MARKET, BARABOO (GROC + C-STORE)</t>
         </is>
       </c>
       <c r="S38" t="inlineStr"/>
@@ -2641,7 +2653,7 @@
       <c r="Q39" t="inlineStr"/>
       <c r="R39" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/GhH3B9P8DGn</t>
+          <t>935 8TH ST</t>
         </is>
       </c>
       <c r="S39" t="inlineStr"/>
@@ -2700,7 +2712,7 @@
       <c r="Q40" t="inlineStr"/>
       <c r="R40" t="inlineStr">
         <is>
-          <t>*IL Meet is 4:15 am at IL Office</t>
+          <t>https://goo.gl/maps/GhH3B9P8DGn</t>
         </is>
       </c>
       <c r="S40" t="inlineStr"/>
@@ -2751,7 +2763,7 @@
       <c r="Q41" t="inlineStr"/>
       <c r="R41" t="inlineStr">
         <is>
-          <t>*SALE INVENTORY</t>
+          <t>*IL Meet is 4:15 am at IL Office</t>
         </is>
       </c>
       <c r="S41" t="inlineStr"/>

--- a/09-08-24 to 09-14-24 Madison Schedule.xlsx
+++ b/09-08-24 to 09-14-24 Madison Schedule.xlsx
@@ -2530,7 +2530,7 @@
       <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr">
         <is>
-          <t>*SALE INVENTORY</t>
+          <t>PIERCE'S EXPRESS MARKET, BARABOO (GROC + C-STORE)</t>
         </is>
       </c>
       <c r="S37" t="inlineStr"/>
@@ -2594,7 +2594,7 @@
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr">
         <is>
-          <t>PIERCE'S EXPRESS MARKET, BARABOO (GROC + C-STORE)</t>
+          <t>935 8TH ST</t>
         </is>
       </c>
       <c r="S38" t="inlineStr"/>
@@ -2653,7 +2653,7 @@
       <c r="Q39" t="inlineStr"/>
       <c r="R39" t="inlineStr">
         <is>
-          <t>935 8TH ST</t>
+          <t>https://goo.gl/maps/GhH3B9P8DGn</t>
         </is>
       </c>
       <c r="S39" t="inlineStr"/>
@@ -2712,7 +2712,7 @@
       <c r="Q40" t="inlineStr"/>
       <c r="R40" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/GhH3B9P8DGn</t>
+          <t>*IL Meet is 4:15 am at IL Office</t>
         </is>
       </c>
       <c r="S40" t="inlineStr"/>
@@ -2763,7 +2763,7 @@
       <c r="Q41" t="inlineStr"/>
       <c r="R41" t="inlineStr">
         <is>
-          <t>*IL Meet is 4:15 am at IL Office</t>
+          <t>*SALE INVENTORY</t>
         </is>
       </c>
       <c r="S41" t="inlineStr"/>

--- a/09-08-24 to 09-14-24 Madison Schedule.xlsx
+++ b/09-08-24 to 09-14-24 Madison Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y98"/>
+  <dimension ref="A1:Y99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1126,7 +1126,11 @@
           <t>Angela</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>work w/ Lorena</t>
+        </is>
+      </c>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
         <is>
@@ -1236,9 +1240,9 @@
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>Driver, 1/2
+          <t>Driver,
 Gray Van,
-Trainer</t>
+work w/ Lorena</t>
         </is>
       </c>
       <c r="T17" t="inlineStr"/>
@@ -1427,8 +1431,8 @@
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>Driver, 1/2
-Gray Van,
+          <t>Driver,
+Silver Van,
 Rx</t>
         </is>
       </c>
@@ -1487,7 +1491,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Evelin</t>
         </is>
       </c>
       <c r="K20" t="inlineStr"/>
@@ -1499,13 +1503,12 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Keshawn</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Driver, 1/2
-Gray Van</t>
+          <t>3rd Scan</t>
         </is>
       </c>
       <c r="P20" t="inlineStr"/>
@@ -1536,21 +1539,9 @@
       <c r="Y20" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>8)</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Serena</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="A21" t="inlineStr"/>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
@@ -1575,7 +1566,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Evelin</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="K21" t="inlineStr"/>
@@ -1587,12 +1578,13 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Savannah</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Driver, 1/2
+Gray Van</t>
         </is>
       </c>
       <c r="P21" t="inlineStr"/>
@@ -1603,7 +1595,7 @@
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Lorena</t>
+          <t>Keshawn</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
@@ -1647,7 +1639,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="K22" t="inlineStr"/>
@@ -1659,10 +1651,14 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Taylor</t>
-        </is>
-      </c>
-      <c r="O22" t="inlineStr"/>
+          <t>Savannah</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr">
         <is>
@@ -1671,10 +1667,14 @@
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Taylor</t>
-        </is>
-      </c>
-      <c r="S22" t="inlineStr"/>
+          <t>Lorena</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>2nd week</t>
+        </is>
+      </c>
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr">
         <is>
@@ -1706,7 +1706,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Keilah</t>
         </is>
       </c>
       <c r="K23" t="inlineStr"/>
@@ -1718,15 +1718,10 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>@ Store,
-Trainer, work w/ Aivy</t>
-        </is>
-      </c>
+          <t>Taylor</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr"/>
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr">
         <is>
@@ -1735,14 +1730,10 @@
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="S23" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Taylor</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr">
         <is>
@@ -1764,11 +1755,7 @@
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>OVERNIGHT</t>
-        </is>
-      </c>
+      <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr">
@@ -1778,13 +1765,12 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Keshawn</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Driver,
-Corolla</t>
+          <t>2nd Scan</t>
         </is>
       </c>
       <c r="L24" t="inlineStr"/>
@@ -1795,12 +1781,13 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Jerry S</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Trainer, work w/ Aivy</t>
         </is>
       </c>
       <c r="P24" t="inlineStr"/>
@@ -1811,12 +1798,13 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+work w/ Keshawn</t>
         </is>
       </c>
       <c r="T24" t="inlineStr"/>
@@ -1858,10 +1846,14 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Keilah</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr"/>
+          <t>Lorena</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>2nd Scan</t>
+        </is>
+      </c>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr">
         <is>
@@ -1870,7 +1862,7 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Jerry S</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -1886,13 +1878,12 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>@ Store,
-After Aurora</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T25" t="inlineStr"/>
@@ -1934,12 +1925,14 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Lorena</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>2nd Scan</t>
+          <t>Driver,
+Gray Van,
+work w/ Keshawn</t>
         </is>
       </c>
       <c r="L26" t="inlineStr"/>
@@ -1950,7 +1943,7 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Marcia</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -1966,7 +1959,7 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
@@ -2014,20 +2007,26 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Michael N</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>Driver,
-Gray Van,
-Trainer</t>
-        </is>
-      </c>
+          <t>Taylor</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>12)</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>Marcia</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2036,12 +2035,13 @@
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Justin Learned</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+After Aurora</t>
         </is>
       </c>
       <c r="T27" t="inlineStr"/>
@@ -2078,16 +2078,8 @@
       </c>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>14)</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>Taylor</t>
-        </is>
-      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr"/>
@@ -2101,13 +2093,12 @@
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Justin Learned</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>@ Store,
-After Aurora</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T28" t="inlineStr"/>
@@ -2135,11 +2126,7 @@
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr"/>
-      <c r="N29" t="inlineStr">
-        <is>
-          <t>OVERNIGHT</t>
-        </is>
-      </c>
+      <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr"/>
       <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr">
@@ -2149,13 +2136,13 @@
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>Lashaun</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
         <is>
           <t>@ Store,
-Supv Rx</t>
+After Aurora</t>
         </is>
       </c>
       <c r="T29" t="inlineStr"/>
@@ -2183,11 +2170,7 @@
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr"/>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>7:30 AM START</t>
-        </is>
-      </c>
+      <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr">
@@ -2197,12 +2180,13 @@
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Lashaun</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Supv Rx</t>
         </is>
       </c>
       <c r="T30" t="inlineStr"/>
@@ -2232,7 +2216,7 @@
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr">
         <is>
-          <t>OVERNIGHT</t>
+          <t>7:30 AM START</t>
         </is>
       </c>
       <c r="K31" t="inlineStr"/>
@@ -2240,7 +2224,7 @@
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>7:30 AM START</t>
         </is>
       </c>
       <c r="O31" t="inlineStr"/>
@@ -2252,7 +2236,7 @@
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>Robyn</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
@@ -2287,7 +2271,7 @@
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr">
         <is>
-          <t>7:30 AM START</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="K32" t="inlineStr"/>
@@ -2295,7 +2279,7 @@
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr">
         <is>
-          <t>GUNDERSEN RX MAIN CLINIC, LA CROSSE-SOUTH AVE</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="O32" t="inlineStr"/>
@@ -2307,7 +2291,7 @@
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Robyn</t>
         </is>
       </c>
       <c r="S32" t="inlineStr">
@@ -2342,7 +2326,7 @@
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>GUNDERSEN RX MED PACK, LA CROSSE-KING ST</t>
         </is>
       </c>
       <c r="K33" t="inlineStr"/>
@@ -2350,14 +2334,26 @@
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr">
         <is>
-          <t>1836 SOUTH AVE</t>
+          <t>GUNDERSEN RX MAIN CLINIC, LA CROSSE-SOUTH AVE</t>
         </is>
       </c>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="inlineStr"/>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>18)</t>
+        </is>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>Sonia</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr"/>
       <c r="V33" t="inlineStr">
@@ -2385,7 +2381,7 @@
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr">
         <is>
-          <t>GUNDERSEN RX MED PACK, LA CROSSE-KING ST</t>
+          <t>505 KING ST</t>
         </is>
       </c>
       <c r="K34" t="inlineStr"/>
@@ -2393,7 +2389,7 @@
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/ohSVe4EmWRL2</t>
+          <t>1836 SOUTH AVE</t>
         </is>
       </c>
       <c r="O34" t="inlineStr"/>
@@ -2428,7 +2424,7 @@
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr">
         <is>
-          <t>505 KING ST</t>
+          <t>https://goo.gl/maps/9Ux8XBD17p92</t>
         </is>
       </c>
       <c r="K35" t="inlineStr"/>
@@ -2436,17 +2432,13 @@
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW   </t>
+          <t>https://goo.gl/maps/ohSVe4EmWRL2</t>
         </is>
       </c>
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="R35" t="inlineStr"/>
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr"/>
@@ -2475,7 +2467,7 @@
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/9Ux8XBD17p92</t>
+          <t xml:space="preserve">TO FOLLOW   </t>
         </is>
       </c>
       <c r="K36" t="inlineStr"/>
@@ -2483,7 +2475,7 @@
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t xml:space="preserve">TO FOLLOW   </t>
         </is>
       </c>
       <c r="O36" t="inlineStr"/>
@@ -2491,7 +2483,7 @@
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="S36" t="inlineStr"/>
@@ -2514,7 +2506,7 @@
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW   </t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="K37" t="inlineStr"/>
@@ -2522,7 +2514,7 @@
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr">
         <is>
-          <t>GUNDERSEN RX, LA CROSSE-DENTON ST</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="O37" t="inlineStr"/>
@@ -2530,7 +2522,7 @@
       <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr">
         <is>
-          <t>PIERCE'S EXPRESS MARKET, BARABOO (GROC + C-STORE)</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="S37" t="inlineStr"/>
@@ -2578,7 +2570,7 @@
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>GUNDERSEN RX, HOLMEN</t>
         </is>
       </c>
       <c r="K38" t="inlineStr"/>
@@ -2586,7 +2578,7 @@
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr">
         <is>
-          <t>724 DENTON ST</t>
+          <t>GUNDERSEN RX, LA CROSSE-DENTON ST</t>
         </is>
       </c>
       <c r="O38" t="inlineStr"/>
@@ -2594,7 +2586,7 @@
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr">
         <is>
-          <t>935 8TH ST</t>
+          <t>PIERCE'S EXPRESS MARKET, BARABOO (GROC + C-STORE)</t>
         </is>
       </c>
       <c r="S38" t="inlineStr"/>
@@ -2637,7 +2629,7 @@
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr">
         <is>
-          <t>GUNDERSEN RX, HOLMEN</t>
+          <t>500 N HOLMEN DR</t>
         </is>
       </c>
       <c r="K39" t="inlineStr"/>
@@ -2645,7 +2637,7 @@
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/4HdiWaPHc372</t>
+          <t>724 DENTON ST</t>
         </is>
       </c>
       <c r="O39" t="inlineStr"/>
@@ -2653,7 +2645,7 @@
       <c r="Q39" t="inlineStr"/>
       <c r="R39" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/GhH3B9P8DGn</t>
+          <t>935 8TH ST</t>
         </is>
       </c>
       <c r="S39" t="inlineStr"/>
@@ -2696,7 +2688,7 @@
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr">
         <is>
-          <t>500 N HOLMEN DR</t>
+          <t>https://goo.gl/maps/NNMt6crjFtCmn1oL8</t>
         </is>
       </c>
       <c r="K40" t="inlineStr"/>
@@ -2704,7 +2696,7 @@
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr">
         <is>
-          <t>*Sarah &amp; Lori - meet at 6:00 am WI Dells Walmart</t>
+          <t>https://goo.gl/maps/4HdiWaPHc372</t>
         </is>
       </c>
       <c r="O40" t="inlineStr"/>
@@ -2712,7 +2704,7 @@
       <c r="Q40" t="inlineStr"/>
       <c r="R40" t="inlineStr">
         <is>
-          <t>*IL Meet is 4:15 am at IL Office</t>
+          <t>https://goo.gl/maps/GhH3B9P8DGn</t>
         </is>
       </c>
       <c r="S40" t="inlineStr"/>
@@ -2751,19 +2743,23 @@
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/NNMt6crjFtCmn1oL8</t>
+          <t xml:space="preserve">TO FOLLOW   </t>
         </is>
       </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr"/>
-      <c r="N41" t="inlineStr"/>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>*Sarah &amp; Lori - meet at 6:00 am WI Dells Walmart</t>
+        </is>
+      </c>
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr"/>
       <c r="R41" t="inlineStr">
         <is>
-          <t>*SALE INVENTORY</t>
+          <t>*IL Meet is 4:15 am at IL Office</t>
         </is>
       </c>
       <c r="S41" t="inlineStr"/>
@@ -2794,29 +2790,21 @@
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW   </t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N42" t="inlineStr">
-        <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="O42" t="inlineStr">
-        <is>
-          <t>Driver 1/2, Equip</t>
-        </is>
-      </c>
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="inlineStr"/>
+      <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>*SALE INVENTORY</t>
+        </is>
+      </c>
       <c r="S42" t="inlineStr"/>
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr"/>
@@ -2837,42 +2825,30 @@
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>GUNDERSEN RX, ONALASKA-SAND LAKE RD</t>
         </is>
       </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>Driver 1/2</t>
+          <t>Driver 1/2, Equip</t>
         </is>
       </c>
       <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R43" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="S43" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="Q43" t="inlineStr"/>
+      <c r="R43" t="inlineStr"/>
+      <c r="S43" t="inlineStr"/>
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr"/>
       <c r="V43" t="inlineStr"/>
@@ -2896,41 +2872,40 @@
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr">
         <is>
-          <t>GUNDERSEN RX, ONALASKA-SAND LAKE RD</t>
+          <t>111 SAND LAKE RD</t>
         </is>
       </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>@ Store, (Optima)</t>
+          <t>Driver 1/2</t>
         </is>
       </c>
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>Aivy</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>@ Store,
-2nd Financial</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="T44" t="inlineStr"/>
@@ -2960,38 +2935,43 @@
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr">
         <is>
-          <t>111 SAND LAKE RD</t>
+          <t>https://goo.gl/maps/fjpxCvKXoUGWJLrH9</t>
         </is>
       </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store, (Optima)</t>
         </is>
       </c>
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>Anisha</t>
-        </is>
-      </c>
-      <c r="S45" t="inlineStr"/>
+          <t>Aivy</t>
+        </is>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>@ Store,
+2nd Financial</t>
+        </is>
+      </c>
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr"/>
       <c r="V45" t="inlineStr">
@@ -3019,31 +2999,38 @@
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/fjpxCvKXoUGWJLrH9</t>
+          <t>*Sarah &amp; Lori - meet at 6:00 am WI Dells Walmart</t>
         </is>
       </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="inlineStr"/>
-      <c r="O46" t="inlineStr"/>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>Qiana</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>Ashley P</t>
-        </is>
-      </c>
-      <c r="S46" t="inlineStr">
-        <is>
-          <t>Driver,
-Corolla</t>
-        </is>
-      </c>
+          <t>Anisha</t>
+        </is>
+      </c>
+      <c r="S46" t="inlineStr"/>
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr"/>
       <c r="V46" t="inlineStr">
@@ -3069,11 +3056,7 @@
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>*Sarah &amp; Lori - meet at 6:00 am WI Dells Walmart</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr"/>
@@ -3082,17 +3065,18 @@
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>Brianna</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Driver,
+Corolla</t>
         </is>
       </c>
       <c r="T47" t="inlineStr"/>
@@ -3119,32 +3103,39 @@
       </c>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr"/>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>Driver 1/2, Equip</t>
+        </is>
+      </c>
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr"/>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>12:00 PM START</t>
-        </is>
-      </c>
+      <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr"/>
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>Evelin</t>
+          <t>Brianna</t>
         </is>
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>Driver, 1/2
-Camry 3</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T48" t="inlineStr"/>
@@ -3173,39 +3164,44 @@
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Driver 1/2, Equip</t>
+          <t>Driver 1/2</t>
         </is>
       </c>
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>12:00 PM START</t>
         </is>
       </c>
       <c r="O49" t="inlineStr"/>
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>Joseph</t>
-        </is>
-      </c>
-      <c r="S49" t="inlineStr"/>
+          <t>Evelin</t>
+        </is>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Camry 3</t>
+        </is>
+      </c>
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr"/>
       <c r="V49" t="inlineStr"/>
@@ -3228,36 +3224,36 @@
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Driver 1/2</t>
+          <t>@ Store, (Optima)</t>
         </is>
       </c>
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr">
         <is>
-          <t>PIGGLY WIGGLY #225, BRODHEAD</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="O50" t="inlineStr"/>
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="S50" t="inlineStr"/>
@@ -3291,45 +3287,39 @@
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>@ Store, (Optima)</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr"/>
       <c r="N51" t="inlineStr">
         <is>
-          <t>1604  1ST CENTER AVE</t>
+          <t>PIGGLY WIGGLY #225, BRODHEAD</t>
         </is>
       </c>
       <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>Michael N</t>
-        </is>
-      </c>
-      <c r="S51" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Camry 3,
-work w/ Aivy</t>
-        </is>
-      </c>
+          <t>Josh S</t>
+        </is>
+      </c>
+      <c r="S51" t="inlineStr"/>
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr"/>
       <c r="V51" t="inlineStr"/>
@@ -3358,43 +3348,33 @@
         </is>
       </c>
       <c r="H52" t="inlineStr"/>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr"/>
       <c r="N52" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/UnLuFXtjZaD2</t>
+          <t>1604  1ST CENTER AVE</t>
         </is>
       </c>
       <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>Nick</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Driver, 1/2
+Camry 3,
+work w/ Aivy</t>
         </is>
       </c>
       <c r="T52" t="inlineStr"/>
@@ -3428,14 +3408,26 @@
       <c r="M53" t="inlineStr"/>
       <c r="N53" t="inlineStr">
         <is>
-          <t xml:space="preserve">*IL Meet is 10:30 am at IL Office  </t>
+          <t>https://goo.gl/maps/UnLuFXtjZaD2</t>
         </is>
       </c>
       <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr"/>
-      <c r="S53" t="inlineStr"/>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>10)</t>
+        </is>
+      </c>
+      <c r="R53" t="inlineStr">
+        <is>
+          <t>Nick</t>
+        </is>
+      </c>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr"/>
       <c r="V53" t="inlineStr"/>
@@ -3461,11 +3453,19 @@
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">6:00 AM START  </t>
+        </is>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr"/>
-      <c r="N54" t="inlineStr"/>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">*IL Meet is 10:30 am at IL Office  </t>
+        </is>
+      </c>
       <c r="O54" t="inlineStr"/>
       <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr"/>
@@ -3500,33 +3500,19 @@
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>DC5-ITEM LEVEL</t>
+        </is>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N55" t="inlineStr">
-        <is>
-          <t>Ashley P</t>
-        </is>
-      </c>
-      <c r="O55" t="inlineStr">
-        <is>
-          <t>@ Store,
-Corolla,
-Equip</t>
-        </is>
-      </c>
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="inlineStr"/>
+      <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr"/>
       <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr">
-        <is>
-          <t>7:00 AM START</t>
-        </is>
-      </c>
+      <c r="R55" t="inlineStr"/>
       <c r="S55" t="inlineStr"/>
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="inlineStr"/>
@@ -3562,25 +3548,36 @@
       </c>
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>PICK #431, FRANKLIN -
+S LOVERS LANE RD</t>
+        </is>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>Anisha</t>
-        </is>
-      </c>
-      <c r="O56" t="inlineStr"/>
+          <t>Ashley P</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>@ Store,
+Corolla,
+Equip</t>
+        </is>
+      </c>
       <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr"/>
       <c r="R56" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="S56" t="inlineStr"/>
@@ -3617,17 +3614,21 @@
       </c>
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>7780 S LOVERS LANE ROAD</t>
+        </is>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Anisha</t>
         </is>
       </c>
       <c r="O57" t="inlineStr"/>
@@ -3635,7 +3636,7 @@
       <c r="Q57" t="inlineStr"/>
       <c r="R57" t="inlineStr">
         <is>
-          <t>GUNDERSEN RX, ONALASKA-GUNDERSEN DR</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="S57" t="inlineStr"/>
@@ -3660,30 +3661,29 @@
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/vq4QCMAV1rj</t>
+        </is>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>Evelin</t>
-        </is>
-      </c>
-      <c r="O58" t="inlineStr">
-        <is>
-          <t>Driver,
-Silver Van</t>
-        </is>
-      </c>
+          <t>Eva</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr"/>
       <c r="P58" t="inlineStr"/>
       <c r="Q58" t="inlineStr"/>
       <c r="R58" t="inlineStr">
         <is>
-          <t>3111 GUNDERSEN DR</t>
+          <t>GUNDERSEN RX, ONALASKA-GUNDERSEN DR</t>
         </is>
       </c>
       <c r="S58" t="inlineStr"/>
@@ -3708,25 +3708,34 @@
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>*IL Meet is 4:30 am at IL Office</t>
+        </is>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>Joseph</t>
-        </is>
-      </c>
-      <c r="O59" t="inlineStr"/>
+          <t>Evelin</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>Driver,
+Silver Van</t>
+        </is>
+      </c>
       <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr"/>
       <c r="R59" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/38tp3sBnAps</t>
+          <t>3111 GUNDERSEN DR</t>
         </is>
       </c>
       <c r="S59" t="inlineStr"/>
@@ -3760,12 +3769,12 @@
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="O60" t="inlineStr"/>
@@ -3773,7 +3782,7 @@
       <c r="Q60" t="inlineStr"/>
       <c r="R60" t="inlineStr">
         <is>
-          <t>TO FOLLOW</t>
+          <t>https://goo.gl/maps/38tp3sBnAps</t>
         </is>
       </c>
       <c r="S60" t="inlineStr"/>
@@ -3797,18 +3806,38 @@
       </c>
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr"/>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="inlineStr"/>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>Josh S</t>
+        </is>
+      </c>
       <c r="O61" t="inlineStr"/>
       <c r="P61" t="inlineStr"/>
       <c r="Q61" t="inlineStr"/>
       <c r="R61" t="inlineStr">
         <is>
-          <t xml:space="preserve">DC5-ITEM LEVEL </t>
+          <t>TO FOLLOW</t>
         </is>
       </c>
       <c r="S61" t="inlineStr"/>
@@ -3844,8 +3873,16 @@
       </c>
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr"/>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>Eva</t>
+        </is>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr"/>
@@ -3855,7 +3892,7 @@
       <c r="Q62" t="inlineStr"/>
       <c r="R62" t="inlineStr">
         <is>
-          <t>GUNDERSEN RX CENTRAL FILL, WEST SALEM</t>
+          <t xml:space="preserve">DC5-ITEM LEVEL </t>
         </is>
       </c>
       <c r="S62" t="inlineStr"/>
@@ -3892,22 +3929,31 @@
       </c>
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr"/>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>Justin Lee</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>Driver,
+Corolla</t>
+        </is>
+      </c>
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr"/>
-      <c r="N63" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr"/>
       <c r="P63" t="inlineStr"/>
       <c r="Q63" t="inlineStr"/>
       <c r="R63" t="inlineStr">
         <is>
-          <t>1115 INDUSTRIAL DR  SUITE A</t>
+          <t>GUNDERSEN RX CENTRAL FILL, WEST SALEM</t>
         </is>
       </c>
       <c r="S63" t="inlineStr"/>
@@ -3943,14 +3989,26 @@
       </c>
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr"/>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr"/>
       <c r="N64" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="O64" t="inlineStr"/>
@@ -3958,7 +4016,7 @@
       <c r="Q64" t="inlineStr"/>
       <c r="R64" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/mti6q5rynbAJZnE67</t>
+          <t>1115 INDUSTRIAL DR  SUITE A</t>
         </is>
       </c>
       <c r="S64" t="inlineStr"/>
@@ -3994,14 +4052,26 @@
       </c>
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr"/>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>Curt</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr"/>
       <c r="N65" t="inlineStr">
         <is>
-          <t>MARIANO'S #530 +RX, EVERGREEN PARK</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="O65" t="inlineStr"/>
@@ -4009,7 +4079,7 @@
       <c r="Q65" t="inlineStr"/>
       <c r="R65" t="inlineStr">
         <is>
-          <t>*Sarah &amp; Lori - meet at 5:30 am WI Dells Walmart</t>
+          <t>https://goo.gl/maps/mti6q5rynbAJZnE67</t>
         </is>
       </c>
       <c r="S65" t="inlineStr"/>
@@ -4041,20 +4111,36 @@
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr"/>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>Cynthia</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr"/>
       <c r="N66" t="inlineStr">
         <is>
-          <t>2559 W 95TH ST</t>
+          <t>MARIANO'S #530 +RX, EVERGREEN PARK</t>
         </is>
       </c>
       <c r="O66" t="inlineStr"/>
       <c r="P66" t="inlineStr"/>
       <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr"/>
+      <c r="R66" t="inlineStr">
+        <is>
+          <t>*Sarah &amp; Lori - meet at 5:30 am WI Dells Walmart</t>
+        </is>
+      </c>
       <c r="S66" t="inlineStr"/>
       <c r="T66" t="inlineStr"/>
       <c r="U66" t="inlineStr">
@@ -4097,33 +4183,33 @@
         </is>
       </c>
       <c r="H67" t="inlineStr"/>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>7)</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>Greg</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr"/>
       <c r="N67" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/msSSp4YpWZR2</t>
+          <t>2559 W 95TH ST</t>
         </is>
       </c>
       <c r="O67" t="inlineStr"/>
       <c r="P67" t="inlineStr"/>
-      <c r="Q67" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R67" t="inlineStr">
-        <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="S67" t="inlineStr">
-        <is>
-          <t>Driver 1/2, Equip</t>
-        </is>
-      </c>
+      <c r="Q67" t="inlineStr"/>
+      <c r="R67" t="inlineStr"/>
+      <c r="S67" t="inlineStr"/>
       <c r="T67" t="inlineStr"/>
       <c r="U67" t="inlineStr">
         <is>
@@ -4160,31 +4246,43 @@
       </c>
       <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr"/>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>8)</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr"/>
       <c r="N68" t="inlineStr">
         <is>
-          <t xml:space="preserve">*IL Meet is 4:15 am at IL Office  </t>
+          <t>https://goo.gl/maps/msSSp4YpWZR2</t>
         </is>
       </c>
       <c r="O68" t="inlineStr"/>
       <c r="P68" t="inlineStr"/>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R68" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="S68" t="inlineStr">
         <is>
-          <t>Driver 1/2</t>
+          <t>Driver 1/2, Equip</t>
         </is>
       </c>
       <c r="T68" t="inlineStr"/>
@@ -4223,27 +4321,43 @@
       </c>
       <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr"/>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>9)</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>Jerry D</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr"/>
-      <c r="N69" t="inlineStr"/>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">*IL Meet is 4:15 am at IL Office  </t>
+        </is>
+      </c>
       <c r="O69" t="inlineStr"/>
       <c r="P69" t="inlineStr"/>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R69" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="S69" t="inlineStr">
         <is>
-          <t>@ Store, (Optima)</t>
+          <t>Driver 1/2</t>
         </is>
       </c>
       <c r="T69" t="inlineStr"/>
@@ -4282,39 +4396,39 @@
       </c>
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr"/>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>10)</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>Lashaun</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N70" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="O70" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="inlineStr"/>
+      <c r="O70" t="inlineStr"/>
       <c r="P70" t="inlineStr"/>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R70" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="S70" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store, (Optima)</t>
         </is>
       </c>
       <c r="T70" t="inlineStr"/>
@@ -4358,31 +4472,53 @@
         </is>
       </c>
       <c r="H71" t="inlineStr"/>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>11)</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L71" t="inlineStr"/>
       <c r="M71" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>Driver,
-Camry 3,
-Rx</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="P71" t="inlineStr"/>
-      <c r="Q71" t="inlineStr"/>
-      <c r="R71" t="inlineStr"/>
-      <c r="S71" t="inlineStr"/>
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
+      <c r="R71" t="inlineStr">
+        <is>
+          <t>Qiana</t>
+        </is>
+      </c>
+      <c r="S71" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T71" t="inlineStr"/>
       <c r="U71" t="inlineStr">
         <is>
@@ -4419,21 +4555,39 @@
       </c>
       <c r="G72" t="inlineStr"/>
       <c r="H72" t="inlineStr"/>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>12)</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>Robyn</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L72" t="inlineStr"/>
       <c r="M72" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>Keilah</t>
-        </is>
-      </c>
-      <c r="O72" t="inlineStr"/>
+          <t>Justin Lee</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>Driver,
+Camry 3,
+Rx</t>
+        </is>
+      </c>
       <c r="P72" t="inlineStr"/>
       <c r="Q72" t="inlineStr"/>
       <c r="R72" t="inlineStr"/>
@@ -4466,32 +4620,36 @@
       <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr"/>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>13)</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>Sonia</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L73" t="inlineStr"/>
       <c r="M73" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>Lorena</t>
-        </is>
-      </c>
-      <c r="O73" t="inlineStr">
-        <is>
-          <t>3rd Scan</t>
-        </is>
-      </c>
+          <t>Keilah</t>
+        </is>
+      </c>
+      <c r="O73" t="inlineStr"/>
       <c r="P73" t="inlineStr"/>
       <c r="Q73" t="inlineStr"/>
-      <c r="R73" t="inlineStr">
-        <is>
-          <t>6:30 AM START</t>
-        </is>
-      </c>
+      <c r="R73" t="inlineStr"/>
       <c r="S73" t="inlineStr"/>
       <c r="T73" t="inlineStr"/>
       <c r="U73" t="inlineStr"/>
@@ -4515,24 +4673,24 @@
       <c r="L74" t="inlineStr"/>
       <c r="M74" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>Lorena</t>
         </is>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>3rd Scan</t>
         </is>
       </c>
       <c r="P74" t="inlineStr"/>
       <c r="Q74" t="inlineStr"/>
       <c r="R74" t="inlineStr">
         <is>
-          <t>MODAS</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="S74" t="inlineStr"/>
@@ -4558,12 +4716,12 @@
       <c r="L75" t="inlineStr"/>
       <c r="M75" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>DJ</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
@@ -4575,7 +4733,7 @@
       <c r="Q75" t="inlineStr"/>
       <c r="R75" t="inlineStr">
         <is>
-          <t>KELLEY #10, CHERRYVALE MOBIL, ROCKFORD</t>
+          <t>MODAS</t>
         </is>
       </c>
       <c r="S75" t="inlineStr"/>
@@ -4601,12 +4759,12 @@
       <c r="L76" t="inlineStr"/>
       <c r="M76" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="O76" t="inlineStr">
@@ -4618,7 +4776,7 @@
       <c r="Q76" t="inlineStr"/>
       <c r="R76" t="inlineStr">
         <is>
-          <t>1736 PERRYVILLE RD</t>
+          <t>KELLEY #10, CHERRYVALE MOBIL, ROCKFORD</t>
         </is>
       </c>
       <c r="S76" t="inlineStr"/>
@@ -4644,12 +4802,12 @@
       <c r="L77" t="inlineStr"/>
       <c r="M77" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="O77" t="inlineStr">
@@ -4661,7 +4819,7 @@
       <c r="Q77" t="inlineStr"/>
       <c r="R77" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/TGUB5JyPmsz</t>
+          <t>1736 PERRYVILLE RD</t>
         </is>
       </c>
       <c r="S77" t="inlineStr"/>
@@ -4687,12 +4845,12 @@
       <c r="L78" t="inlineStr"/>
       <c r="M78" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
@@ -4702,7 +4860,11 @@
       </c>
       <c r="P78" t="inlineStr"/>
       <c r="Q78" t="inlineStr"/>
-      <c r="R78" t="inlineStr"/>
+      <c r="R78" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/TGUB5JyPmsz</t>
+        </is>
+      </c>
       <c r="S78" t="inlineStr"/>
       <c r="T78" t="inlineStr"/>
       <c r="U78" t="inlineStr"/>
@@ -4726,12 +4888,12 @@
       <c r="L79" t="inlineStr"/>
       <c r="M79" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>Justin Learned</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="O79" t="inlineStr">
@@ -4740,21 +4902,9 @@
         </is>
       </c>
       <c r="P79" t="inlineStr"/>
-      <c r="Q79" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R79" t="inlineStr">
-        <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="S79" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="Q79" t="inlineStr"/>
+      <c r="R79" t="inlineStr"/>
+      <c r="S79" t="inlineStr"/>
       <c r="T79" t="inlineStr"/>
       <c r="U79" t="inlineStr"/>
       <c r="V79" t="inlineStr"/>
@@ -4777,32 +4927,35 @@
       <c r="L80" t="inlineStr"/>
       <c r="M80" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Justin Learned</t>
         </is>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>@ Store,
-Supv Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P80" t="inlineStr"/>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R80" t="inlineStr">
         <is>
-          <t>Emily L</t>
-        </is>
-      </c>
-      <c r="S80" t="inlineStr"/>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="S80" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="T80" t="inlineStr"/>
       <c r="U80" t="inlineStr"/>
       <c r="V80" t="inlineStr"/>
@@ -4825,28 +4978,29 @@
       <c r="L81" t="inlineStr"/>
       <c r="M81" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Supv Rx</t>
         </is>
       </c>
       <c r="P81" t="inlineStr"/>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R81" t="inlineStr">
         <is>
-          <t>Laci</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="S81" t="inlineStr"/>
@@ -4872,12 +5026,12 @@
       <c r="L82" t="inlineStr"/>
       <c r="M82" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>Robyn</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="O82" t="inlineStr">
@@ -4888,19 +5042,15 @@
       <c r="P82" t="inlineStr"/>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R82" t="inlineStr">
         <is>
-          <t>Spencer P</t>
-        </is>
-      </c>
-      <c r="S82" t="inlineStr">
-        <is>
-          <t>Until 8:15</t>
-        </is>
-      </c>
+          <t>Laci</t>
+        </is>
+      </c>
+      <c r="S82" t="inlineStr"/>
       <c r="T82" t="inlineStr"/>
       <c r="U82" t="inlineStr"/>
       <c r="V82" t="inlineStr"/>
@@ -4923,12 +5073,12 @@
       <c r="L83" t="inlineStr"/>
       <c r="M83" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Robyn</t>
         </is>
       </c>
       <c r="O83" t="inlineStr">
@@ -4939,15 +5089,19 @@
       <c r="P83" t="inlineStr"/>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R83" t="inlineStr">
         <is>
-          <t>Tina E</t>
-        </is>
-      </c>
-      <c r="S83" t="inlineStr"/>
+          <t>Spencer P</t>
+        </is>
+      </c>
+      <c r="S83" t="inlineStr">
+        <is>
+          <t>Until 8:15</t>
+        </is>
+      </c>
       <c r="T83" t="inlineStr"/>
       <c r="U83" t="inlineStr"/>
       <c r="V83" t="inlineStr"/>
@@ -4970,23 +5124,30 @@
       <c r="L84" t="inlineStr"/>
       <c r="M84" t="inlineStr">
         <is>
-          <t>15)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>Stephanie</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>@ Store,
-Trainer</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P84" t="inlineStr"/>
-      <c r="Q84" t="inlineStr"/>
-      <c r="R84" t="inlineStr"/>
+      <c r="Q84" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
+      <c r="R84" t="inlineStr">
+        <is>
+          <t>Tina E</t>
+        </is>
+      </c>
       <c r="S84" t="inlineStr"/>
       <c r="T84" t="inlineStr"/>
       <c r="U84" t="inlineStr"/>
@@ -5010,17 +5171,18 @@
       <c r="L85" t="inlineStr"/>
       <c r="M85" t="inlineStr">
         <is>
-          <t>16)</t>
+          <t>15)</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>Sue</t>
+          <t>Stephanie</t>
         </is>
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Trainer</t>
         </is>
       </c>
       <c r="P85" t="inlineStr"/>
@@ -5047,9 +5209,21 @@
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr"/>
-      <c r="N86" t="inlineStr"/>
-      <c r="O86" t="inlineStr"/>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>16)</t>
+        </is>
+      </c>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>Sue</t>
+        </is>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P86" t="inlineStr"/>
       <c r="Q86" t="inlineStr"/>
       <c r="R86" t="inlineStr"/>
@@ -5102,11 +5276,7 @@
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
       <c r="M88" t="inlineStr"/>
-      <c r="N88" t="inlineStr">
-        <is>
-          <t>6:30 AM START</t>
-        </is>
-      </c>
+      <c r="N88" t="inlineStr"/>
       <c r="O88" t="inlineStr"/>
       <c r="P88" t="inlineStr"/>
       <c r="Q88" t="inlineStr"/>
@@ -5135,7 +5305,7 @@
       <c r="M89" t="inlineStr"/>
       <c r="N89" t="inlineStr">
         <is>
-          <t>MODAS</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="O89" t="inlineStr"/>
@@ -5166,7 +5336,7 @@
       <c r="M90" t="inlineStr"/>
       <c r="N90" t="inlineStr">
         <is>
-          <t>KELLEY #05, TOLLWAY MOBIL, LOVES PARK</t>
+          <t>MODAS</t>
         </is>
       </c>
       <c r="O90" t="inlineStr"/>
@@ -5197,7 +5367,7 @@
       <c r="M91" t="inlineStr"/>
       <c r="N91" t="inlineStr">
         <is>
-          <t>7490 E RIVERSIDE</t>
+          <t>KELLEY #05, TOLLWAY MOBIL, LOVES PARK</t>
         </is>
       </c>
       <c r="O91" t="inlineStr"/>
@@ -5228,7 +5398,7 @@
       <c r="M92" t="inlineStr"/>
       <c r="N92" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/HBfHzKVkpGk</t>
+          <t>7490 E RIVERSIDE</t>
         </is>
       </c>
       <c r="O92" t="inlineStr"/>
@@ -5257,7 +5427,11 @@
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
       <c r="M93" t="inlineStr"/>
-      <c r="N93" t="inlineStr"/>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/HBfHzKVkpGk</t>
+        </is>
+      </c>
       <c r="O93" t="inlineStr"/>
       <c r="P93" t="inlineStr"/>
       <c r="Q93" t="inlineStr"/>
@@ -5283,21 +5457,9 @@
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N94" t="inlineStr">
-        <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="O94" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="inlineStr"/>
+      <c r="O94" t="inlineStr"/>
       <c r="P94" t="inlineStr"/>
       <c r="Q94" t="inlineStr"/>
       <c r="R94" t="inlineStr"/>
@@ -5324,15 +5486,19 @@
       <c r="L95" t="inlineStr"/>
       <c r="M95" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>Emily L</t>
-        </is>
-      </c>
-      <c r="O95" t="inlineStr"/>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="P95" t="inlineStr"/>
       <c r="Q95" t="inlineStr"/>
       <c r="R95" t="inlineStr"/>
@@ -5359,12 +5525,12 @@
       <c r="L96" t="inlineStr"/>
       <c r="M96" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>Laci</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="O96" t="inlineStr"/>
@@ -5394,19 +5560,15 @@
       <c r="L97" t="inlineStr"/>
       <c r="M97" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>Spencer P</t>
-        </is>
-      </c>
-      <c r="O97" t="inlineStr">
-        <is>
-          <t>Until 8:15</t>
-        </is>
-      </c>
+          <t>Laci</t>
+        </is>
+      </c>
+      <c r="O97" t="inlineStr"/>
       <c r="P97" t="inlineStr"/>
       <c r="Q97" t="inlineStr"/>
       <c r="R97" t="inlineStr"/>
@@ -5433,15 +5595,19 @@
       <c r="L98" t="inlineStr"/>
       <c r="M98" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>Tina E</t>
-        </is>
-      </c>
-      <c r="O98" t="inlineStr"/>
+          <t>Spencer P</t>
+        </is>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>Until 8:15</t>
+        </is>
+      </c>
       <c r="P98" t="inlineStr"/>
       <c r="Q98" t="inlineStr"/>
       <c r="R98" t="inlineStr"/>
@@ -5453,6 +5619,41 @@
       <c r="X98" t="inlineStr"/>
       <c r="Y98" t="inlineStr"/>
     </row>
+    <row r="99">
+      <c r="A99" t="inlineStr"/>
+      <c r="B99" t="inlineStr"/>
+      <c r="C99" t="inlineStr"/>
+      <c r="D99" t="inlineStr"/>
+      <c r="E99" t="inlineStr"/>
+      <c r="F99" t="inlineStr"/>
+      <c r="G99" t="inlineStr"/>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
+      <c r="N99" t="inlineStr">
+        <is>
+          <t>Tina E</t>
+        </is>
+      </c>
+      <c r="O99" t="inlineStr"/>
+      <c r="P99" t="inlineStr"/>
+      <c r="Q99" t="inlineStr"/>
+      <c r="R99" t="inlineStr"/>
+      <c r="S99" t="inlineStr"/>
+      <c r="T99" t="inlineStr"/>
+      <c r="U99" t="inlineStr"/>
+      <c r="V99" t="inlineStr"/>
+      <c r="W99" t="inlineStr"/>
+      <c r="X99" t="inlineStr"/>
+      <c r="Y99" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/09-08-24 to 09-14-24 Madison Schedule.xlsx
+++ b/09-08-24 to 09-14-24 Madison Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y99"/>
+  <dimension ref="A1:Y101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -618,11 +618,7 @@
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>Optima oil change this day if needed</t>
-        </is>
-      </c>
+      <c r="V6" t="inlineStr"/>
       <c r="W6" t="inlineStr"/>
       <c r="X6" t="inlineStr"/>
       <c r="Y6" t="inlineStr"/>
@@ -1410,12 +1406,13 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>Josie</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Driver, 1/2
+Gray Van</t>
         </is>
       </c>
       <c r="P19" t="inlineStr"/>
@@ -1503,12 +1500,12 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>Keshawn</t>
+          <t>Savannah</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>3rd Scan</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P20" t="inlineStr"/>
@@ -1578,15 +1575,10 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Michael N</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Gray Van</t>
-        </is>
-      </c>
+          <t>Taylor</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr">
         <is>
@@ -1651,12 +1643,13 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Savannah</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Trainer, work w/ Aivy</t>
         </is>
       </c>
       <c r="P22" t="inlineStr"/>
@@ -1672,7 +1665,7 @@
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>2nd week</t>
+          <t>3rd Scan</t>
         </is>
       </c>
       <c r="T22" t="inlineStr"/>
@@ -1718,10 +1711,14 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Taylor</t>
-        </is>
-      </c>
-      <c r="O23" t="inlineStr"/>
+          <t>Jerry S</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr">
         <is>
@@ -1755,7 +1752,11 @@
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>OVERNIGHT</t>
+        </is>
+      </c>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr">
@@ -1781,13 +1782,12 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>@ Store,
-Trainer, work w/ Aivy</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P24" t="inlineStr"/>
@@ -1862,7 +1862,7 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Jerry S</t>
+          <t>Marcia</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -1936,21 +1936,9 @@
         </is>
       </c>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>11)</t>
-        </is>
-      </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>Kirsten</t>
-        </is>
-      </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="inlineStr"/>
+      <c r="O26" t="inlineStr"/>
       <c r="P26" t="inlineStr"/>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2012,21 +2000,9 @@
       </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>12)</t>
-        </is>
-      </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>Marcia</t>
-        </is>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="inlineStr"/>
+      <c r="O27" t="inlineStr"/>
       <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2083,7 +2059,11 @@
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr"/>
-      <c r="N28" t="inlineStr"/>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>OVERNIGHT</t>
+        </is>
+      </c>
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr">
@@ -2093,12 +2073,13 @@
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>Justin Learned</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+After Aurora</t>
         </is>
       </c>
       <c r="T28" t="inlineStr"/>
@@ -2126,7 +2107,11 @@
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr"/>
-      <c r="N29" t="inlineStr"/>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>7:30 AM START</t>
+        </is>
+      </c>
       <c r="O29" t="inlineStr"/>
       <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr">
@@ -2136,13 +2121,13 @@
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Lashaun</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
         <is>
           <t>@ Store,
-After Aurora</t>
+Supv Rx</t>
         </is>
       </c>
       <c r="T29" t="inlineStr"/>
@@ -2166,11 +2151,19 @@
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>OVERNIGHT</t>
+        </is>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr"/>
-      <c r="N30" t="inlineStr"/>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>DC5-ITEM LEVEL</t>
+        </is>
+      </c>
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr">
@@ -2180,13 +2173,12 @@
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>Lashaun</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>@ Store,
-Supv Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T30" t="inlineStr"/>
@@ -2224,7 +2216,7 @@
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr">
         <is>
-          <t>7:30 AM START</t>
+          <t>GUNDERSEN RX MAIN CLINIC, LA CROSSE-SOUTH AVE</t>
         </is>
       </c>
       <c r="O31" t="inlineStr"/>
@@ -2236,7 +2228,7 @@
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Robyn</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
@@ -2279,7 +2271,7 @@
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>1836 SOUTH AVE</t>
         </is>
       </c>
       <c r="O32" t="inlineStr"/>
@@ -2291,7 +2283,7 @@
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>Robyn</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="S32" t="inlineStr">
@@ -2334,26 +2326,14 @@
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr">
         <is>
-          <t>GUNDERSEN RX MAIN CLINIC, LA CROSSE-SOUTH AVE</t>
+          <t>https://goo.gl/maps/ohSVe4EmWRL2</t>
         </is>
       </c>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr">
-        <is>
-          <t>18)</t>
-        </is>
-      </c>
-      <c r="R33" t="inlineStr">
-        <is>
-          <t>Sonia</t>
-        </is>
-      </c>
-      <c r="S33" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="Q33" t="inlineStr"/>
+      <c r="R33" t="inlineStr"/>
+      <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr"/>
       <c r="V33" t="inlineStr">
@@ -2389,7 +2369,7 @@
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr">
         <is>
-          <t>1836 SOUTH AVE</t>
+          <t xml:space="preserve">TO FOLLOW   </t>
         </is>
       </c>
       <c r="O34" t="inlineStr"/>
@@ -2432,13 +2412,17 @@
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/ohSVe4EmWRL2</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr"/>
@@ -2475,7 +2459,7 @@
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW   </t>
+          <t>GUNDERSEN RX, LA CROSSE-DENTON ST</t>
         </is>
       </c>
       <c r="O36" t="inlineStr"/>
@@ -2483,7 +2467,7 @@
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="S36" t="inlineStr"/>
@@ -2514,7 +2498,7 @@
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>724 DENTON ST</t>
         </is>
       </c>
       <c r="O37" t="inlineStr"/>
@@ -2522,7 +2506,7 @@
       <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>*SALE INVENTORY</t>
         </is>
       </c>
       <c r="S37" t="inlineStr"/>
@@ -2578,7 +2562,7 @@
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr">
         <is>
-          <t>GUNDERSEN RX, LA CROSSE-DENTON ST</t>
+          <t>https://goo.gl/maps/4HdiWaPHc372</t>
         </is>
       </c>
       <c r="O38" t="inlineStr"/>
@@ -2637,7 +2621,7 @@
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr">
         <is>
-          <t>724 DENTON ST</t>
+          <t>*Sarah &amp; Lori - meet at 6:00 am WI Dells Walmart</t>
         </is>
       </c>
       <c r="O39" t="inlineStr"/>
@@ -2694,11 +2678,7 @@
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr"/>
-      <c r="N40" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/4HdiWaPHc372</t>
-        </is>
-      </c>
+      <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr"/>
@@ -2748,13 +2728,21 @@
       </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>*Sarah &amp; Lori - meet at 6:00 am WI Dells Walmart</t>
-        </is>
-      </c>
-      <c r="O41" t="inlineStr"/>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>Driver 1/2, Equip</t>
+        </is>
+      </c>
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr"/>
       <c r="R41" t="inlineStr">
@@ -2795,16 +2783,24 @@
       </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="inlineStr"/>
-      <c r="O42" t="inlineStr"/>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>Lori</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>Driver 1/2</t>
+        </is>
+      </c>
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr">
-        <is>
-          <t>*SALE INVENTORY</t>
-        </is>
-      </c>
+      <c r="R42" t="inlineStr"/>
       <c r="S42" t="inlineStr"/>
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr"/>
@@ -2832,23 +2828,35 @@
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
         <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>Nate</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>@ Store, (Optima)</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr"/>
+      <c r="Q43" t="inlineStr">
+        <is>
           <t>1)</t>
         </is>
       </c>
-      <c r="N43" t="inlineStr">
-        <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="O43" t="inlineStr">
-        <is>
-          <t>Driver 1/2, Equip</t>
-        </is>
-      </c>
-      <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr"/>
-      <c r="S43" t="inlineStr"/>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr"/>
       <c r="V43" t="inlineStr"/>
@@ -2879,33 +2887,34 @@
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>Driver 1/2</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Aivy</t>
         </is>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>@ Store, Equip</t>
+          <t>@ Store,
+2nd Financial</t>
         </is>
       </c>
       <c r="T44" t="inlineStr"/>
@@ -2940,38 +2949,21 @@
       </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="N45" t="inlineStr">
-        <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="O45" t="inlineStr">
-        <is>
-          <t>@ Store, (Optima)</t>
-        </is>
-      </c>
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="inlineStr"/>
+      <c r="O45" t="inlineStr"/>
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>Aivy</t>
-        </is>
-      </c>
-      <c r="S45" t="inlineStr">
-        <is>
-          <t>@ Store,
-2nd Financial</t>
-        </is>
-      </c>
+          <t>Anisha</t>
+        </is>
+      </c>
+      <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr"/>
       <c r="V45" t="inlineStr">
@@ -3004,33 +2996,26 @@
       </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
-      <c r="N46" t="inlineStr">
-        <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="O46" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="inlineStr"/>
+      <c r="O46" t="inlineStr"/>
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>Anisha</t>
-        </is>
-      </c>
-      <c r="S46" t="inlineStr"/>
+          <t>Ashley P</t>
+        </is>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>Driver,
+Corolla</t>
+        </is>
+      </c>
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr"/>
       <c r="V46" t="inlineStr">
@@ -3060,23 +3045,26 @@
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr"/>
-      <c r="N47" t="inlineStr"/>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>12:00 PM START</t>
+        </is>
+      </c>
       <c r="O47" t="inlineStr"/>
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Brianna</t>
         </is>
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>Driver,
-Corolla</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T47" t="inlineStr"/>
@@ -3120,22 +3108,27 @@
       </c>
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr"/>
-      <c r="N48" t="inlineStr"/>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>DC5-FINANCIAL</t>
+        </is>
+      </c>
       <c r="O48" t="inlineStr"/>
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>Brianna</t>
+          <t>Evelin</t>
         </is>
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Driver, 1/2
+Camry 3</t>
         </is>
       </c>
       <c r="T48" t="inlineStr"/>
@@ -3181,27 +3174,22 @@
       <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr">
         <is>
-          <t>12:00 PM START</t>
+          <t>PIGGLY WIGGLY #225, BRODHEAD</t>
         </is>
       </c>
       <c r="O49" t="inlineStr"/>
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>Evelin</t>
-        </is>
-      </c>
-      <c r="S49" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Camry 3</t>
-        </is>
-      </c>
+          <t>Joseph</t>
+        </is>
+      </c>
+      <c r="S49" t="inlineStr"/>
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr"/>
       <c r="V49" t="inlineStr"/>
@@ -3241,19 +3229,19 @@
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>1604  1ST CENTER AVE</t>
         </is>
       </c>
       <c r="O50" t="inlineStr"/>
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="S50" t="inlineStr"/>
@@ -3304,22 +3292,28 @@
       <c r="M51" t="inlineStr"/>
       <c r="N51" t="inlineStr">
         <is>
-          <t>PIGGLY WIGGLY #225, BRODHEAD</t>
+          <t>https://goo.gl/maps/UnLuFXtjZaD2</t>
         </is>
       </c>
       <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>Josh S</t>
-        </is>
-      </c>
-      <c r="S51" t="inlineStr"/>
+          <t>Michael N</t>
+        </is>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Camry 3,
+work w/ Aivy</t>
+        </is>
+      </c>
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr"/>
       <c r="V51" t="inlineStr"/>
@@ -3355,26 +3349,24 @@
       <c r="M52" t="inlineStr"/>
       <c r="N52" t="inlineStr">
         <is>
-          <t>1604  1ST CENTER AVE</t>
+          <t xml:space="preserve">*IL Meet is 10:30 am at IL Office  </t>
         </is>
       </c>
       <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Nick</t>
         </is>
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>Driver, 1/2
-Camry 3,
-work w/ Aivy</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T52" t="inlineStr"/>
@@ -3406,28 +3398,12 @@
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr"/>
-      <c r="N53" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/UnLuFXtjZaD2</t>
-        </is>
-      </c>
+      <c r="N53" t="inlineStr"/>
       <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr">
-        <is>
-          <t>10)</t>
-        </is>
-      </c>
-      <c r="R53" t="inlineStr">
-        <is>
-          <t>Nick</t>
-        </is>
-      </c>
-      <c r="S53" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="Q53" t="inlineStr"/>
+      <c r="R53" t="inlineStr"/>
+      <c r="S53" t="inlineStr"/>
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr"/>
       <c r="V53" t="inlineStr"/>
@@ -3460,13 +3436,23 @@
       </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t xml:space="preserve">*IL Meet is 10:30 am at IL Office  </t>
-        </is>
-      </c>
-      <c r="O54" t="inlineStr"/>
+          <t>Ashley P</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>@ Store,
+Corolla,
+Equip</t>
+        </is>
+      </c>
       <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr"/>
       <c r="R54" t="inlineStr"/>
@@ -3507,12 +3493,24 @@
       </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
-      <c r="N55" t="inlineStr"/>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>Anisha</t>
+        </is>
+      </c>
       <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr"/>
       <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr"/>
+      <c r="R55" t="inlineStr">
+        <is>
+          <t>7:00 AM START</t>
+        </is>
+      </c>
       <c r="S55" t="inlineStr"/>
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="inlineStr"/>
@@ -3558,26 +3556,20 @@
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>Ashley P</t>
-        </is>
-      </c>
-      <c r="O56" t="inlineStr">
-        <is>
-          <t>@ Store,
-Corolla,
-Equip</t>
-        </is>
-      </c>
+          <t>Eva</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr"/>
       <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr"/>
       <c r="R56" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="S56" t="inlineStr"/>
@@ -3623,20 +3615,25 @@
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>Anisha</t>
-        </is>
-      </c>
-      <c r="O57" t="inlineStr"/>
+          <t>Evelin</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>Driver,
+Silver Van</t>
+        </is>
+      </c>
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr"/>
       <c r="R57" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>GUNDERSEN RX, ONALASKA-GUNDERSEN DR</t>
         </is>
       </c>
       <c r="S57" t="inlineStr"/>
@@ -3670,12 +3667,12 @@
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="O58" t="inlineStr"/>
@@ -3683,7 +3680,7 @@
       <c r="Q58" t="inlineStr"/>
       <c r="R58" t="inlineStr">
         <is>
-          <t>GUNDERSEN RX, ONALASKA-GUNDERSEN DR</t>
+          <t>3111 GUNDERSEN DR</t>
         </is>
       </c>
       <c r="S58" t="inlineStr"/>
@@ -3717,25 +3714,20 @@
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>Evelin</t>
-        </is>
-      </c>
-      <c r="O59" t="inlineStr">
-        <is>
-          <t>Driver,
-Silver Van</t>
-        </is>
-      </c>
+          <t>Josh S</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr"/>
       <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr"/>
       <c r="R59" t="inlineStr">
         <is>
-          <t>3111 GUNDERSEN DR</t>
+          <t>https://goo.gl/maps/38tp3sBnAps</t>
         </is>
       </c>
       <c r="S59" t="inlineStr"/>
@@ -3743,7 +3735,7 @@
       <c r="U59" t="inlineStr"/>
       <c r="V59" t="inlineStr">
         <is>
-          <t>*Sarah &amp; Aivy 4:30 am meet @ Portage Walmart</t>
+          <t>*Sarah &amp; Aivy 5:00 am meet @ Portage Walmart</t>
         </is>
       </c>
       <c r="W59" t="inlineStr"/>
@@ -3767,22 +3759,14 @@
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
-      <c r="N60" t="inlineStr">
-        <is>
-          <t>Joseph</t>
-        </is>
-      </c>
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="inlineStr"/>
       <c r="O60" t="inlineStr"/>
       <c r="P60" t="inlineStr"/>
       <c r="Q60" t="inlineStr"/>
       <c r="R60" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/38tp3sBnAps</t>
+          <t>TO FOLLOW</t>
         </is>
       </c>
       <c r="S60" t="inlineStr"/>
@@ -3822,22 +3806,14 @@
         </is>
       </c>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="N61" t="inlineStr">
-        <is>
-          <t>Josh S</t>
-        </is>
-      </c>
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr"/>
       <c r="P61" t="inlineStr"/>
       <c r="Q61" t="inlineStr"/>
       <c r="R61" t="inlineStr">
         <is>
-          <t>TO FOLLOW</t>
+          <t xml:space="preserve">DC5-ITEM LEVEL </t>
         </is>
       </c>
       <c r="S61" t="inlineStr"/>
@@ -3886,13 +3862,17 @@
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr"/>
-      <c r="N62" t="inlineStr"/>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="O62" t="inlineStr"/>
       <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr"/>
       <c r="R62" t="inlineStr">
         <is>
-          <t xml:space="preserve">DC5-ITEM LEVEL </t>
+          <t>GUNDERSEN RX CENTRAL FILL, WEST SALEM</t>
         </is>
       </c>
       <c r="S62" t="inlineStr"/>
@@ -3947,13 +3927,17 @@
       </c>
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr"/>
-      <c r="N63" t="inlineStr"/>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>DC5-ITEM LEVEL</t>
+        </is>
+      </c>
       <c r="O63" t="inlineStr"/>
       <c r="P63" t="inlineStr"/>
       <c r="Q63" t="inlineStr"/>
       <c r="R63" t="inlineStr">
         <is>
-          <t>GUNDERSEN RX CENTRAL FILL, WEST SALEM</t>
+          <t>1115 INDUSTRIAL DR  SUITE A</t>
         </is>
       </c>
       <c r="S63" t="inlineStr"/>
@@ -4008,7 +3992,7 @@
       <c r="M64" t="inlineStr"/>
       <c r="N64" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>MARIANO'S #530 +RX, EVERGREEN PARK</t>
         </is>
       </c>
       <c r="O64" t="inlineStr"/>
@@ -4016,7 +4000,7 @@
       <c r="Q64" t="inlineStr"/>
       <c r="R64" t="inlineStr">
         <is>
-          <t>1115 INDUSTRIAL DR  SUITE A</t>
+          <t>https://goo.gl/maps/mti6q5rynbAJZnE67</t>
         </is>
       </c>
       <c r="S64" t="inlineStr"/>
@@ -4071,7 +4055,7 @@
       <c r="M65" t="inlineStr"/>
       <c r="N65" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>2559 W 95TH ST</t>
         </is>
       </c>
       <c r="O65" t="inlineStr"/>
@@ -4079,7 +4063,7 @@
       <c r="Q65" t="inlineStr"/>
       <c r="R65" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/mti6q5rynbAJZnE67</t>
+          <t>*Sarah &amp; Lori - meet at 5:30 am WI Dells Walmart</t>
         </is>
       </c>
       <c r="S65" t="inlineStr"/>
@@ -4130,17 +4114,13 @@
       <c r="M66" t="inlineStr"/>
       <c r="N66" t="inlineStr">
         <is>
-          <t>MARIANO'S #530 +RX, EVERGREEN PARK</t>
+          <t>https://goo.gl/maps/msSSp4YpWZR2</t>
         </is>
       </c>
       <c r="O66" t="inlineStr"/>
       <c r="P66" t="inlineStr"/>
       <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr">
-        <is>
-          <t>*Sarah &amp; Lori - meet at 5:30 am WI Dells Walmart</t>
-        </is>
-      </c>
+      <c r="R66" t="inlineStr"/>
       <c r="S66" t="inlineStr"/>
       <c r="T66" t="inlineStr"/>
       <c r="U66" t="inlineStr">
@@ -4202,14 +4182,26 @@
       <c r="M67" t="inlineStr"/>
       <c r="N67" t="inlineStr">
         <is>
-          <t>2559 W 95TH ST</t>
+          <t xml:space="preserve">*IL Meet is 4:15 am at IL Office  </t>
         </is>
       </c>
       <c r="O67" t="inlineStr"/>
       <c r="P67" t="inlineStr"/>
-      <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="inlineStr"/>
-      <c r="S67" t="inlineStr"/>
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="R67" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="S67" t="inlineStr">
+        <is>
+          <t>Driver 1/2, Equip</t>
+        </is>
+      </c>
       <c r="T67" t="inlineStr"/>
       <c r="U67" t="inlineStr">
         <is>
@@ -4263,26 +4255,22 @@
       </c>
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr"/>
-      <c r="N68" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/msSSp4YpWZR2</t>
-        </is>
-      </c>
+      <c r="N68" t="inlineStr"/>
       <c r="O68" t="inlineStr"/>
       <c r="P68" t="inlineStr"/>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R68" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="S68" t="inlineStr">
         <is>
-          <t>Driver 1/2, Equip</t>
+          <t>Driver 1/2</t>
         </is>
       </c>
       <c r="T68" t="inlineStr"/>
@@ -4328,7 +4316,7 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Lashaun</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -4337,27 +4325,35 @@
         </is>
       </c>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t xml:space="preserve">*IL Meet is 4:15 am at IL Office  </t>
-        </is>
-      </c>
-      <c r="O69" t="inlineStr"/>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="P69" t="inlineStr"/>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R69" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="S69" t="inlineStr">
         <is>
-          <t>Driver 1/2</t>
+          <t>@ Store, (Optima)</t>
         </is>
       </c>
       <c r="T69" t="inlineStr"/>
@@ -4403,7 +4399,7 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Lashaun</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -4412,23 +4408,37 @@
         </is>
       </c>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr"/>
-      <c r="N70" t="inlineStr"/>
-      <c r="O70" t="inlineStr"/>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>Justin Lee</t>
+        </is>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>Driver,
+Camry 3,
+Rx</t>
+        </is>
+      </c>
       <c r="P70" t="inlineStr"/>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R70" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="S70" t="inlineStr">
         <is>
-          <t>@ Store, (Optima)</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T70" t="inlineStr"/>
@@ -4439,7 +4449,7 @@
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>Nagui</t>
+          <t>Serena</t>
         </is>
       </c>
       <c r="W70" t="inlineStr">
@@ -4479,7 +4489,7 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Robyn</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -4490,35 +4500,19 @@
       <c r="L71" t="inlineStr"/>
       <c r="M71" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="O71" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+          <t>Keilah</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr"/>
       <c r="P71" t="inlineStr"/>
-      <c r="Q71" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
-      <c r="R71" t="inlineStr">
-        <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="S71" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="Q71" t="inlineStr"/>
+      <c r="R71" t="inlineStr"/>
+      <c r="S71" t="inlineStr"/>
       <c r="T71" t="inlineStr"/>
       <c r="U71" t="inlineStr">
         <is>
@@ -4527,7 +4521,7 @@
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>Serena</t>
+          <t>Trevor</t>
         </is>
       </c>
       <c r="W71" t="inlineStr">
@@ -4562,7 +4556,7 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Robyn</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -4573,19 +4567,17 @@
       <c r="L72" t="inlineStr"/>
       <c r="M72" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Lorena</t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>Driver,
-Camry 3,
-Rx</t>
+          <t>3rd Scan</t>
         </is>
       </c>
       <c r="P72" t="inlineStr"/>
@@ -4593,21 +4585,9 @@
       <c r="R72" t="inlineStr"/>
       <c r="S72" t="inlineStr"/>
       <c r="T72" t="inlineStr"/>
-      <c r="U72" t="inlineStr">
-        <is>
-          <t>12)</t>
-        </is>
-      </c>
-      <c r="V72" t="inlineStr">
-        <is>
-          <t>Trevor</t>
-        </is>
-      </c>
-      <c r="W72" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="U72" t="inlineStr"/>
+      <c r="V72" t="inlineStr"/>
+      <c r="W72" t="inlineStr"/>
       <c r="X72" t="inlineStr"/>
       <c r="Y72" t="inlineStr"/>
     </row>
@@ -4616,40 +4596,48 @@
       <c r="B73" t="inlineStr"/>
       <c r="C73" t="inlineStr"/>
       <c r="D73" t="inlineStr"/>
-      <c r="E73" t="inlineStr"/>
-      <c r="F73" t="inlineStr"/>
-      <c r="G73" t="inlineStr"/>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>7)</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Tina E</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H73" t="inlineStr"/>
-      <c r="I73" t="inlineStr">
-        <is>
-          <t>13)</t>
-        </is>
-      </c>
-      <c r="J73" t="inlineStr">
-        <is>
-          <t>Sonia</t>
-        </is>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
       <c r="M73" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>Keilah</t>
-        </is>
-      </c>
-      <c r="O73" t="inlineStr"/>
+          <t>Cynthia</t>
+        </is>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P73" t="inlineStr"/>
       <c r="Q73" t="inlineStr"/>
-      <c r="R73" t="inlineStr"/>
+      <c r="R73" t="inlineStr">
+        <is>
+          <t>6:30 AM START</t>
+        </is>
+      </c>
       <c r="S73" t="inlineStr"/>
       <c r="T73" t="inlineStr"/>
       <c r="U73" t="inlineStr"/>
@@ -4673,24 +4661,24 @@
       <c r="L74" t="inlineStr"/>
       <c r="M74" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>Lorena</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>3rd Scan</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P74" t="inlineStr"/>
       <c r="Q74" t="inlineStr"/>
       <c r="R74" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>MODAS</t>
         </is>
       </c>
       <c r="S74" t="inlineStr"/>
@@ -4716,12 +4704,12 @@
       <c r="L75" t="inlineStr"/>
       <c r="M75" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
@@ -4733,7 +4721,7 @@
       <c r="Q75" t="inlineStr"/>
       <c r="R75" t="inlineStr">
         <is>
-          <t>MODAS</t>
+          <t>KELLEY #10, CHERRYVALE MOBIL, ROCKFORD</t>
         </is>
       </c>
       <c r="S75" t="inlineStr"/>
@@ -4759,12 +4747,12 @@
       <c r="L76" t="inlineStr"/>
       <c r="M76" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>DJ</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="O76" t="inlineStr">
@@ -4776,7 +4764,7 @@
       <c r="Q76" t="inlineStr"/>
       <c r="R76" t="inlineStr">
         <is>
-          <t>KELLEY #10, CHERRYVALE MOBIL, ROCKFORD</t>
+          <t>1736 PERRYVILLE RD</t>
         </is>
       </c>
       <c r="S76" t="inlineStr"/>
@@ -4802,12 +4790,12 @@
       <c r="L77" t="inlineStr"/>
       <c r="M77" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="O77" t="inlineStr">
@@ -4819,7 +4807,7 @@
       <c r="Q77" t="inlineStr"/>
       <c r="R77" t="inlineStr">
         <is>
-          <t>1736 PERRYVILLE RD</t>
+          <t>https://goo.gl/maps/TGUB5JyPmsz</t>
         </is>
       </c>
       <c r="S77" t="inlineStr"/>
@@ -4845,12 +4833,12 @@
       <c r="L78" t="inlineStr"/>
       <c r="M78" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Justin Learned</t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
@@ -4860,11 +4848,7 @@
       </c>
       <c r="P78" t="inlineStr"/>
       <c r="Q78" t="inlineStr"/>
-      <c r="R78" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/TGUB5JyPmsz</t>
-        </is>
-      </c>
+      <c r="R78" t="inlineStr"/>
       <c r="S78" t="inlineStr"/>
       <c r="T78" t="inlineStr"/>
       <c r="U78" t="inlineStr"/>
@@ -4888,23 +4872,36 @@
       <c r="L79" t="inlineStr"/>
       <c r="M79" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Supv Rx</t>
         </is>
       </c>
       <c r="P79" t="inlineStr"/>
-      <c r="Q79" t="inlineStr"/>
-      <c r="R79" t="inlineStr"/>
-      <c r="S79" t="inlineStr"/>
+      <c r="Q79" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="R79" t="inlineStr">
+        <is>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="S79" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="T79" t="inlineStr"/>
       <c r="U79" t="inlineStr"/>
       <c r="V79" t="inlineStr"/>
@@ -4927,12 +4924,12 @@
       <c r="L80" t="inlineStr"/>
       <c r="M80" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>Justin Learned</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="O80" t="inlineStr">
@@ -4943,19 +4940,15 @@
       <c r="P80" t="inlineStr"/>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R80" t="inlineStr">
         <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="S80" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+          <t>Emily L</t>
+        </is>
+      </c>
+      <c r="S80" t="inlineStr"/>
       <c r="T80" t="inlineStr"/>
       <c r="U80" t="inlineStr"/>
       <c r="V80" t="inlineStr"/>
@@ -4978,29 +4971,28 @@
       <c r="L81" t="inlineStr"/>
       <c r="M81" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Robyn</t>
         </is>
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>@ Store,
-Supv Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P81" t="inlineStr"/>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R81" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Laci</t>
         </is>
       </c>
       <c r="S81" t="inlineStr"/>
@@ -5026,12 +5018,12 @@
       <c r="L82" t="inlineStr"/>
       <c r="M82" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="O82" t="inlineStr">
@@ -5042,15 +5034,19 @@
       <c r="P82" t="inlineStr"/>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R82" t="inlineStr">
         <is>
-          <t>Laci</t>
-        </is>
-      </c>
-      <c r="S82" t="inlineStr"/>
+          <t>Spencer P</t>
+        </is>
+      </c>
+      <c r="S82" t="inlineStr">
+        <is>
+          <t>Until 8:15</t>
+        </is>
+      </c>
       <c r="T82" t="inlineStr"/>
       <c r="U82" t="inlineStr"/>
       <c r="V82" t="inlineStr"/>
@@ -5073,35 +5069,32 @@
       <c r="L83" t="inlineStr"/>
       <c r="M83" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>15)</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>Robyn</t>
+          <t>Stephanie</t>
         </is>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Trainer</t>
         </is>
       </c>
       <c r="P83" t="inlineStr"/>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R83" t="inlineStr">
         <is>
-          <t>Spencer P</t>
-        </is>
-      </c>
-      <c r="S83" t="inlineStr">
-        <is>
-          <t>Until 8:15</t>
-        </is>
-      </c>
+          <t>Tina E</t>
+        </is>
+      </c>
+      <c r="S83" t="inlineStr"/>
       <c r="T83" t="inlineStr"/>
       <c r="U83" t="inlineStr"/>
       <c r="V83" t="inlineStr"/>
@@ -5124,12 +5117,12 @@
       <c r="L84" t="inlineStr"/>
       <c r="M84" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>16)</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Sue</t>
         </is>
       </c>
       <c r="O84" t="inlineStr">
@@ -5138,16 +5131,8 @@
         </is>
       </c>
       <c r="P84" t="inlineStr"/>
-      <c r="Q84" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
-      <c r="R84" t="inlineStr">
-        <is>
-          <t>Tina E</t>
-        </is>
-      </c>
+      <c r="Q84" t="inlineStr"/>
+      <c r="R84" t="inlineStr"/>
       <c r="S84" t="inlineStr"/>
       <c r="T84" t="inlineStr"/>
       <c r="U84" t="inlineStr"/>
@@ -5169,22 +5154,9 @@
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr">
-        <is>
-          <t>15)</t>
-        </is>
-      </c>
-      <c r="N85" t="inlineStr">
-        <is>
-          <t>Stephanie</t>
-        </is>
-      </c>
-      <c r="O85" t="inlineStr">
-        <is>
-          <t>@ Store,
-Trainer</t>
-        </is>
-      </c>
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="inlineStr"/>
+      <c r="O85" t="inlineStr"/>
       <c r="P85" t="inlineStr"/>
       <c r="Q85" t="inlineStr"/>
       <c r="R85" t="inlineStr"/>
@@ -5209,21 +5181,9 @@
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr">
-        <is>
-          <t>16)</t>
-        </is>
-      </c>
-      <c r="N86" t="inlineStr">
-        <is>
-          <t>Sue</t>
-        </is>
-      </c>
-      <c r="O86" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="inlineStr"/>
+      <c r="O86" t="inlineStr"/>
       <c r="P86" t="inlineStr"/>
       <c r="Q86" t="inlineStr"/>
       <c r="R86" t="inlineStr"/>
@@ -5249,7 +5209,11 @@
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
       <c r="M87" t="inlineStr"/>
-      <c r="N87" t="inlineStr"/>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>6:30 AM START</t>
+        </is>
+      </c>
       <c r="O87" t="inlineStr"/>
       <c r="P87" t="inlineStr"/>
       <c r="Q87" t="inlineStr"/>
@@ -5276,7 +5240,11 @@
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
       <c r="M88" t="inlineStr"/>
-      <c r="N88" t="inlineStr"/>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>MODAS</t>
+        </is>
+      </c>
       <c r="O88" t="inlineStr"/>
       <c r="P88" t="inlineStr"/>
       <c r="Q88" t="inlineStr"/>
@@ -5305,7 +5273,7 @@
       <c r="M89" t="inlineStr"/>
       <c r="N89" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>KELLEY #05, TOLLWAY MOBIL, LOVES PARK</t>
         </is>
       </c>
       <c r="O89" t="inlineStr"/>
@@ -5336,7 +5304,7 @@
       <c r="M90" t="inlineStr"/>
       <c r="N90" t="inlineStr">
         <is>
-          <t>MODAS</t>
+          <t>7490 E RIVERSIDE</t>
         </is>
       </c>
       <c r="O90" t="inlineStr"/>
@@ -5367,7 +5335,7 @@
       <c r="M91" t="inlineStr"/>
       <c r="N91" t="inlineStr">
         <is>
-          <t>KELLEY #05, TOLLWAY MOBIL, LOVES PARK</t>
+          <t>https://goo.gl/maps/HBfHzKVkpGk</t>
         </is>
       </c>
       <c r="O91" t="inlineStr"/>
@@ -5396,11 +5364,7 @@
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
       <c r="M92" t="inlineStr"/>
-      <c r="N92" t="inlineStr">
-        <is>
-          <t>7490 E RIVERSIDE</t>
-        </is>
-      </c>
+      <c r="N92" t="inlineStr"/>
       <c r="O92" t="inlineStr"/>
       <c r="P92" t="inlineStr"/>
       <c r="Q92" t="inlineStr"/>
@@ -5426,13 +5390,21 @@
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="inlineStr"/>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/HBfHzKVkpGk</t>
-        </is>
-      </c>
-      <c r="O93" t="inlineStr"/>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="P93" t="inlineStr"/>
       <c r="Q93" t="inlineStr"/>
       <c r="R93" t="inlineStr"/>
@@ -5457,8 +5429,16 @@
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr"/>
-      <c r="N94" t="inlineStr"/>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>Emily L</t>
+        </is>
+      </c>
       <c r="O94" t="inlineStr"/>
       <c r="P94" t="inlineStr"/>
       <c r="Q94" t="inlineStr"/>
@@ -5486,19 +5466,15 @@
       <c r="L95" t="inlineStr"/>
       <c r="M95" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="O95" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+          <t>Laci</t>
+        </is>
+      </c>
+      <c r="O95" t="inlineStr"/>
       <c r="P95" t="inlineStr"/>
       <c r="Q95" t="inlineStr"/>
       <c r="R95" t="inlineStr"/>
@@ -5525,15 +5501,19 @@
       <c r="L96" t="inlineStr"/>
       <c r="M96" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>Emily L</t>
-        </is>
-      </c>
-      <c r="O96" t="inlineStr"/>
+          <t>Spencer P</t>
+        </is>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>Until 8:15</t>
+        </is>
+      </c>
       <c r="P96" t="inlineStr"/>
       <c r="Q96" t="inlineStr"/>
       <c r="R96" t="inlineStr"/>
@@ -5560,12 +5540,12 @@
       <c r="L97" t="inlineStr"/>
       <c r="M97" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>Laci</t>
+          <t>Tina E</t>
         </is>
       </c>
       <c r="O97" t="inlineStr"/>
@@ -5593,21 +5573,9 @@
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
-      <c r="N98" t="inlineStr">
-        <is>
-          <t>Spencer P</t>
-        </is>
-      </c>
-      <c r="O98" t="inlineStr">
-        <is>
-          <t>Until 8:15</t>
-        </is>
-      </c>
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="inlineStr"/>
+      <c r="O98" t="inlineStr"/>
       <c r="P98" t="inlineStr"/>
       <c r="Q98" t="inlineStr"/>
       <c r="R98" t="inlineStr"/>
@@ -5632,16 +5600,8 @@
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
-      <c r="N99" t="inlineStr">
-        <is>
-          <t>Tina E</t>
-        </is>
-      </c>
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="inlineStr"/>
       <c r="O99" t="inlineStr"/>
       <c r="P99" t="inlineStr"/>
       <c r="Q99" t="inlineStr"/>
@@ -5654,6 +5614,68 @@
       <c r="X99" t="inlineStr"/>
       <c r="Y99" t="inlineStr"/>
     </row>
+    <row r="100">
+      <c r="A100" t="inlineStr"/>
+      <c r="B100" t="inlineStr"/>
+      <c r="C100" t="inlineStr"/>
+      <c r="D100" t="inlineStr"/>
+      <c r="E100" t="inlineStr"/>
+      <c r="F100" t="inlineStr"/>
+      <c r="G100" t="inlineStr"/>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="inlineStr">
+        <is>
+          <t>Office</t>
+        </is>
+      </c>
+      <c r="O100" t="inlineStr"/>
+      <c r="P100" t="inlineStr"/>
+      <c r="Q100" t="inlineStr"/>
+      <c r="R100" t="inlineStr"/>
+      <c r="S100" t="inlineStr"/>
+      <c r="T100" t="inlineStr"/>
+      <c r="U100" t="inlineStr"/>
+      <c r="V100" t="inlineStr"/>
+      <c r="W100" t="inlineStr"/>
+      <c r="X100" t="inlineStr"/>
+      <c r="Y100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr"/>
+      <c r="B101" t="inlineStr"/>
+      <c r="C101" t="inlineStr"/>
+      <c r="D101" t="inlineStr"/>
+      <c r="E101" t="inlineStr"/>
+      <c r="F101" t="inlineStr"/>
+      <c r="G101" t="inlineStr"/>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="inlineStr">
+        <is>
+          <t>Lashaun</t>
+        </is>
+      </c>
+      <c r="O101" t="inlineStr"/>
+      <c r="P101" t="inlineStr"/>
+      <c r="Q101" t="inlineStr"/>
+      <c r="R101" t="inlineStr"/>
+      <c r="S101" t="inlineStr"/>
+      <c r="T101" t="inlineStr"/>
+      <c r="U101" t="inlineStr"/>
+      <c r="V101" t="inlineStr"/>
+      <c r="W101" t="inlineStr"/>
+      <c r="X101" t="inlineStr"/>
+      <c r="Y101" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/09-08-24 to 09-14-24 Madison Schedule.xlsx
+++ b/09-08-24 to 09-14-24 Madison Schedule.xlsx
@@ -1752,11 +1752,7 @@
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>OVERNIGHT</t>
-        </is>
-      </c>
+      <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr">
@@ -2059,11 +2055,7 @@
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr"/>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>OVERNIGHT</t>
-        </is>
-      </c>
+      <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr">
@@ -2151,11 +2143,7 @@
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>OVERNIGHT</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr"/>
@@ -2506,7 +2494,7 @@
       <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr">
         <is>
-          <t>*SALE INVENTORY</t>
+          <t>PIERCE'S EXPRESS MARKET, BARABOO (GROC + C-STORE)</t>
         </is>
       </c>
       <c r="S37" t="inlineStr"/>
@@ -2570,7 +2558,7 @@
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr">
         <is>
-          <t>PIERCE'S EXPRESS MARKET, BARABOO (GROC + C-STORE)</t>
+          <t>935 8TH ST</t>
         </is>
       </c>
       <c r="S38" t="inlineStr"/>
@@ -2629,7 +2617,7 @@
       <c r="Q39" t="inlineStr"/>
       <c r="R39" t="inlineStr">
         <is>
-          <t>935 8TH ST</t>
+          <t>https://goo.gl/maps/GhH3B9P8DGn</t>
         </is>
       </c>
       <c r="S39" t="inlineStr"/>
@@ -2684,7 +2672,7 @@
       <c r="Q40" t="inlineStr"/>
       <c r="R40" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/GhH3B9P8DGn</t>
+          <t>*IL Meet is 4:15 am at IL Office</t>
         </is>
       </c>
       <c r="S40" t="inlineStr"/>
@@ -2747,7 +2735,7 @@
       <c r="Q41" t="inlineStr"/>
       <c r="R41" t="inlineStr">
         <is>
-          <t>*IL Meet is 4:15 am at IL Office</t>
+          <t>*SALE INVENTORY</t>
         </is>
       </c>
       <c r="S41" t="inlineStr"/>

--- a/09-08-24 to 09-14-24 Madison Schedule.xlsx
+++ b/09-08-24 to 09-14-24 Madison Schedule.xlsx
@@ -1752,7 +1752,11 @@
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>OVERNIGHT</t>
+        </is>
+      </c>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr">
@@ -1816,7 +1820,7 @@
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store, Until 12:15</t>
         </is>
       </c>
       <c r="X24" t="inlineStr"/>
@@ -1965,7 +1969,7 @@
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store, Until 12:15</t>
         </is>
       </c>
       <c r="X26" t="inlineStr"/>
@@ -2055,7 +2059,11 @@
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr"/>
-      <c r="N28" t="inlineStr"/>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>OVERNIGHT</t>
+        </is>
+      </c>
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr">
@@ -2143,7 +2151,11 @@
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>OVERNIGHT</t>
+        </is>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr"/>
@@ -2494,7 +2506,7 @@
       <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr">
         <is>
-          <t>PIERCE'S EXPRESS MARKET, BARABOO (GROC + C-STORE)</t>
+          <t>*SALE INVENTORY</t>
         </is>
       </c>
       <c r="S37" t="inlineStr"/>
@@ -2558,7 +2570,7 @@
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr">
         <is>
-          <t>935 8TH ST</t>
+          <t>PIERCE'S EXPRESS MARKET, BARABOO (GROC + C-STORE)</t>
         </is>
       </c>
       <c r="S38" t="inlineStr"/>
@@ -2570,7 +2582,7 @@
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="W38" t="inlineStr"/>
@@ -2617,7 +2629,7 @@
       <c r="Q39" t="inlineStr"/>
       <c r="R39" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/GhH3B9P8DGn</t>
+          <t>935 8TH ST</t>
         </is>
       </c>
       <c r="S39" t="inlineStr"/>
@@ -2629,7 +2641,7 @@
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="W39" t="inlineStr"/>
@@ -2672,7 +2684,7 @@
       <c r="Q40" t="inlineStr"/>
       <c r="R40" t="inlineStr">
         <is>
-          <t>*IL Meet is 4:15 am at IL Office</t>
+          <t>https://goo.gl/maps/GhH3B9P8DGn</t>
         </is>
       </c>
       <c r="S40" t="inlineStr"/>
@@ -2684,7 +2696,7 @@
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="W40" t="inlineStr"/>
@@ -2735,7 +2747,7 @@
       <c r="Q41" t="inlineStr"/>
       <c r="R41" t="inlineStr">
         <is>
-          <t>*SALE INVENTORY</t>
+          <t>*IL Meet is 4:15 am at IL Office</t>
         </is>
       </c>
       <c r="S41" t="inlineStr"/>
@@ -2747,7 +2759,7 @@
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>Taylor</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="W41" t="inlineStr"/>
@@ -2791,8 +2803,16 @@
       <c r="R42" t="inlineStr"/>
       <c r="S42" t="inlineStr"/>
       <c r="T42" t="inlineStr"/>
-      <c r="U42" t="inlineStr"/>
-      <c r="V42" t="inlineStr"/>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>Taylor</t>
+        </is>
+      </c>
       <c r="W42" t="inlineStr"/>
       <c r="X42" t="inlineStr"/>
       <c r="Y42" t="inlineStr"/>
@@ -2907,11 +2927,7 @@
       </c>
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr"/>
-      <c r="V44" t="inlineStr">
-        <is>
-          <t>8:00 AM START</t>
-        </is>
-      </c>
+      <c r="V44" t="inlineStr"/>
       <c r="W44" t="inlineStr"/>
       <c r="X44" t="inlineStr"/>
       <c r="Y44" t="inlineStr"/>
@@ -2956,7 +2972,7 @@
       <c r="U45" t="inlineStr"/>
       <c r="V45" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>8:00 AM START</t>
         </is>
       </c>
       <c r="W45" t="inlineStr"/>
@@ -3008,7 +3024,7 @@
       <c r="U46" t="inlineStr"/>
       <c r="V46" t="inlineStr">
         <is>
-          <t>GUNDERSEN RX, PRAIRIE DU CHIEN</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="W46" t="inlineStr"/>
@@ -3059,7 +3075,7 @@
       <c r="U47" t="inlineStr"/>
       <c r="V47" t="inlineStr">
         <is>
-          <t>610 E TAYLOR ST</t>
+          <t>GUNDERSEN RX, PRAIRIE DU CHIEN</t>
         </is>
       </c>
       <c r="W47" t="inlineStr"/>
@@ -3123,7 +3139,7 @@
       <c r="U48" t="inlineStr"/>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/DGmiuzT1Ger</t>
+          <t>610 E TAYLOR ST</t>
         </is>
       </c>
       <c r="W48" t="inlineStr"/>
@@ -3180,7 +3196,11 @@
       <c r="S49" t="inlineStr"/>
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr"/>
-      <c r="V49" t="inlineStr"/>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/DGmiuzT1Ger</t>
+        </is>
+      </c>
       <c r="W49" t="inlineStr"/>
       <c r="X49" t="inlineStr"/>
       <c r="Y49" t="inlineStr"/>
@@ -3234,21 +3254,9 @@
       </c>
       <c r="S50" t="inlineStr"/>
       <c r="T50" t="inlineStr"/>
-      <c r="U50" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="V50" t="inlineStr">
-        <is>
-          <t>Palmer</t>
-        </is>
-      </c>
-      <c r="W50" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="U50" t="inlineStr"/>
+      <c r="V50" t="inlineStr"/>
+      <c r="W50" t="inlineStr"/>
       <c r="X50" t="inlineStr"/>
       <c r="Y50" t="inlineStr"/>
     </row>
@@ -3303,9 +3311,21 @@
         </is>
       </c>
       <c r="T51" t="inlineStr"/>
-      <c r="U51" t="inlineStr"/>
-      <c r="V51" t="inlineStr"/>
-      <c r="W51" t="inlineStr"/>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>Palmer</t>
+        </is>
+      </c>
+      <c r="W51" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="X51" t="inlineStr"/>
       <c r="Y51" t="inlineStr"/>
     </row>
